--- a/datamining/final_data/sorted1986_nltk.xlsx
+++ b/datamining/final_data/sorted1986_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AKB2"/>
+  <dimension ref="A1:AIE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>research</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -487,2237 +487,2237 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>book</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>review</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>staff-development</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>staff-development</t>
+          <t>model</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>school</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>author</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>models</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>possibilities</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>pragmatics</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>use</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>sequence</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>self-directed</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>possibilities</t>
+          <t>learning-models</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>three</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>pragmatics</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>design</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>self-directed</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>learning-models</t>
+          <t>giants</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>implementing</t>
+          <t>shoulders</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>schiffer</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>renewal</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>future</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>language</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>shoulders</t>
+          <t>test</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>giants</t>
+          <t>special</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>guest</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>assessment</t>
-        </is>
-      </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>target</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>stages</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>article</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>guest</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>video</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>social-studies</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>described</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>often</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>stages</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>interdisciplinary</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>social-studies</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>used</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>interdisciplinary</t>
+          <t>assimilation</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>renewal</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>schiffer</t>
+          <t>accommodation</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>discriminant</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>cognition</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>work</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>key</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>results</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>level</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>accommodation</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>discriminant</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>assimilation</t>
+          <t>project</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>role</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>cognition</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>children</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>``</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>one</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>''</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>labeling</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>aj</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>tannenbaum</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>labeling</t>
+          <t>various</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>aj</t>
+          <t>two</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>techniques</t>
+          <t>child</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>tannenbaum</t>
+          <t>reality</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>poet</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>myth</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>entry</t>
+          <t>livingston</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>defends</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>require</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>entrants</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>college</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>persons</t>
+          <t>different</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>defends</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>lessons</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>others</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
           <t>information</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>case</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>single</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>reality</t>
+          <t>procedure</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>entrants</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>five</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>poet</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>myth</t>
+          <t>make</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>livingston</t>
+          <t>cbam</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>student</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>isd</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>high</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>causes</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>guidelines</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>district</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>procedure</t>
+          <t>disciplinary</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>support</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>unlimited</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>task</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>isd</t>
+          <t>group</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>need</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>providing</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>well</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>assumptions</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>disciplinary</t>
+          <t>involvement</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>cbam</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>unlimited</t>
+          <t>method</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>field</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>causes</t>
+          <t>may</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>assumptions</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>frameworks</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>guidelines</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>asking</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>application</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>per</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>involvement</t>
+          <t>pupil</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>data</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>reasoning</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>asking</t>
+          <t>process</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>general</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>least</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>early</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>per</t>
+          <t>based</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>pupil</t>
+          <t>consists</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>alternatives</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>area</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>purposes</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>honors</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>frameworks</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>consists</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>purposes</t>
+          <t>service</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>underlying</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>long</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>illinois</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>alternatives</t>
+          <t>history</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>rationale</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>american</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>americans</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>honors</t>
+          <t>designing</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>content</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>raises</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>endeavor</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>illinois</t>
+          <t>actively</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>arena</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>catalytic</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>component</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>underlying</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>federal</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>federal-role</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>government</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>estimated</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>weaving</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>builds</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>estimated</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>americans</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>present</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>german</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>percentage</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>evaluate</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>differences</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>builds</t>
+          <t>show</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>arena</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>think</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>previewed</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>nonidentified</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>upon</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>investigations</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>developments</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
           <t>participation</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>endeavor</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>investigations</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>component</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>catalytic</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>actively</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>raises</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>degree</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>federal</t>
-        </is>
-      </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>nonidentified</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>subjects</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>explores</t>
+          <t>several</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>also</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>useful</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>previewed</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>federal-role</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>inseivice</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>designing</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>weaving</t>
+          <t>wisc-r</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>developments</t>
+          <t>full</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>variability</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>subtests</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>idiographic</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>among</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>followup</t>
+          <t>carolina</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>north</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>module</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>subjects</t>
+          <t>interesting</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>propose</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>consideration</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>justifies</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>inseivice</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>improving</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>defining</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>module</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>carolina</t>
+          <t>legacy</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>logic</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>topics</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>wisc-r</t>
+          <t>instructional-models</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>contexts</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>idiographic</t>
+          <t>curiculum</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>variability</t>
+          <t>truly</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>brave</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>shown</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>subtests</t>
+          <t>right</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>success</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>criterion</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>instructionial</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>ripples</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>throughout</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>evaluations</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>connected</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>framing</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>topic</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
           <t>makes</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>looks</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>defining</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>evolution</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>consideration</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>ripples</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>throughout</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>critically</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>argies</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>comprehensive</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>argies</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>interesting</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>instructional-models</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>efficacy</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>topics</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>brave</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>taken</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>instructionial</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>propose</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>account</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>logic</t>
+          <t>solutions</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>legacy</t>
+          <t>would-be</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>truly</t>
+          <t>selecting</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>curiculum</t>
+          <t>evaluators</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
+          <t>evaluator</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>omnipresent</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>dilemmas</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>proposes</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>confronting</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
           <t>assessing</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>framing</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>focus</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>evaluations</t>
-        </is>
-      </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>facing</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>protocal</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>dilemmas</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>confronting</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>solve</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>proposes</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>drawn</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>justifies</t>
+          <t>window</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>selecting</t>
+          <t>exploring</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>indices</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>facing</t>
+          <t>enter</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>supports</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>evaluators</t>
+          <t>university</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>taken</t>
+          <t>young</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>omnipresent</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>years</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>improving</t>
+          <t>selective</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>promptly</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>would-be</t>
+          <t>johns</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>win</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>evaluator</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>connected</t>
+          <t>good</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>fare</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>hopkins</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>little</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
+          <t>educationally</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
           <t>additional</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>solve</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
+          <t>operations</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>argues</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>highlighted</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>paper-and-pencil</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>information-processing</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>mental</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>information-processing</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>highlighted</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>protocal</t>
-        </is>
-      </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>obstacles</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>metaanalysis</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>methodology</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>decisions</t>
+          <t>offers</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>argues</t>
+          <t>theories</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>overcome</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>operations</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>paper-and-pencil</t>
+          <t>responds</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
@@ -2727,2527 +2727,2282 @@
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>drawn</t>
+          <t>employing</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>imprecise</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>indivduals</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
           <t>current</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>direction</t>
-        </is>
-      </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>employing</t>
+          <t>call</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
+          <t>cause-and-effect</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>convincing</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>describing</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>designs</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
           <t>extraordinary</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>imprecise</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>convincing</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>metaanalysis</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
-      </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>describing</t>
+          <t>large-scale</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
+          <t>asserts</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>necessarily</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
           <t>conducting</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenon</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>critiques</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>studying</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
         <is>
           <t>validating</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>overcome</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>along</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>designs</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>responds</t>
+          <t>interdisci-</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>indices</t>
+          <t>plinary</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>critiques</t>
+          <t>texas</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>cause-and-effect</t>
+          <t>interdisc</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>johns</t>
+          <t>inter</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>modification</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>orientation</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>educationally</t>
+          <t>plinarity</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>enter</t>
+          <t>precursor</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>fare</t>
+          <t>four-step</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>units</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>hopkins</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>promptly</t>
+          <t>center</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>studying</t>
+          <t>concerns-based</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>phenomenon</t>
+          <t>match</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>necessarily</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>large-scale</t>
+          <t>dimension</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>indivduals</t>
+          <t>differentiating</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>supports</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>asserts</t>
+          <t>adoption</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>obstacles</t>
+          <t>addresses</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>number</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>coordinators</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>stereotypes</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>295</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>orientation</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>interdisc</t>
+          <t>addressing</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>reactions</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>plinarity</t>
+          <t>deliver</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>plinary</t>
+          <t>conceptions</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>consequences</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>questionnaires</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>precursor</t>
+          <t>old</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>stressed</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>labeled</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>meanings</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>modification</t>
+          <t>attained</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>four-step</t>
+          <t>facilitator</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>addresses</t>
+          <t>delivering</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>adoption</t>
+          <t>must</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>differentiating</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>dimension</t>
+          <t>set</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>sessions</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>session</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>concerns-based</t>
+          <t>sequenced</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>inter</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>texas</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>organized</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>interdisci-</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>consequences</t>
+          <t>local</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>extensive</t>
+          <t>land</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>deliver</t>
+          <t>home</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
           <t>faced</t>
         </is>
       </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>attained</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>conceptions</t>
-        </is>
-      </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>property</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>delivering</t>
+          <t>ses</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>reactions</t>
+          <t>reversing</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>reliance</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>labeled</t>
+          <t>reinforce</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>meanings</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>youngsters</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>preventing</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>socioeconomic</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>questionnaires</t>
+          <t>unmotivated</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>facilitator</t>
+          <t>race,2</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>coordinators</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>race</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>self-discipline</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>social</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>spending</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>addressing</t>
+          <t>standardized</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>barticular</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>organized</t>
+          <t>be-</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>de-</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
-          <t>sessions</t>
+          <t>deucational</t>
         </is>
       </c>
       <c r="VD1" s="1" t="inlineStr">
         <is>
-          <t>sequenced</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="VE1" s="1" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="VF1" s="1" t="inlineStr">
         <is>
-          <t>own</t>
+          <t>elements</t>
         </is>
       </c>
       <c r="VG1" s="1" t="inlineStr">
         <is>
-          <t>session</t>
+          <t>examples</t>
         </is>
       </c>
       <c r="VH1" s="1" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>fits</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>value</t>
         </is>
       </c>
       <c r="VJ1" s="1" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>status</t>
         </is>
       </c>
       <c r="VK1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>observed</t>
         </is>
       </c>
       <c r="VL1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
+          <t>promising</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>predictor</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>spatial</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>verbal</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>tween</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>challenged</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>criticized</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>derived</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>erode</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>inappropriate</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>insufficient</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>meaningful</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>might</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>noted</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>veloping</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>professionals</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>questioned</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>mathematically</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>broadened</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>calls</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
           <t>intensely</t>
         </is>
       </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>underachievement</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>self-discipline</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>reversing</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>preventing</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
         <is>
           <t>increase</t>
         </is>
       </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>youngsters</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>unmotivated</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>describe</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>ideas</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>barticular</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>be-</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>de-</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>fits</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>deucational</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>elements</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>helpfulin</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>helpfulin</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
+      <c r="WX1" s="1" t="inlineStr">
         <is>
           <t>growing</t>
         </is>
       </c>
-      <c r="WN1" s="1" t="inlineStr">
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>excel</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>equated</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>jersey</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>attitude</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>achiever</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>traditionally</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>inequalities</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>g/t</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>excessive</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>insufficient</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>inappropriate</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>erode</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>derived</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>criticized</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>frustrated</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>challenged</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>mathematics</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>predictor</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>spatial</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>verbal</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>meaningful</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>noted</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>excel</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>equated</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>veloping</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>effectively</t>
-        </is>
-      </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>later</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>questioned</t>
+          <t>designated</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>tween</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>accumulated</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>specified</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>achiever</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>pertinent</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
-          <t>professionals</t>
+          <t>particular</t>
         </is>
       </c>
       <c r="YC1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>occur</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>total</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>together</t>
         </is>
       </c>
       <c r="YI1" s="1" t="inlineStr">
         <is>
-          <t>standardized</t>
+          <t>specialized</t>
         </is>
       </c>
       <c r="YJ1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>seminar</t>
         </is>
       </c>
       <c r="YK1" s="1" t="inlineStr">
         <is>
-          <t>excessive</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="YL1" s="1" t="inlineStr">
         <is>
-          <t>g/t</t>
+          <t>pursuit</t>
         </is>
       </c>
       <c r="YM1" s="1" t="inlineStr">
         <is>
-          <t>calls</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>inequalities</t>
+          <t>collaborative</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>facilities</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>broadened</t>
+          <t>self-evaluation</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>jersey</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="YS1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>wealth</t>
         </is>
       </c>
       <c r="YT1" s="1" t="inlineStr">
         <is>
-          <t>promising</t>
+          <t>vaiue</t>
         </is>
       </c>
       <c r="YU1" s="1" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>tend</t>
         </is>
       </c>
       <c r="YV1" s="1" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="YW1" s="1" t="inlineStr">
         <is>
-          <t>race,2</t>
+          <t>served</t>
         </is>
       </c>
       <c r="YX1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>self-assessment</t>
         </is>
       </c>
       <c r="YY1" s="1" t="inlineStr">
         <is>
-          <t>reinforce</t>
+          <t>goal-planning</t>
         </is>
       </c>
       <c r="YZ1" s="1" t="inlineStr">
         <is>
-          <t>reliance</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="ZA1" s="1" t="inlineStr">
         <is>
-          <t>ses</t>
+          <t>problem-centered</t>
         </is>
       </c>
       <c r="ZB1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>mutual</t>
         </is>
       </c>
       <c r="ZC1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="ZD1" s="1" t="inlineStr">
         <is>
-          <t>spending</t>
+          <t>continuation</t>
         </is>
       </c>
       <c r="ZE1" s="1" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="ZF1" s="1" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>immediate</t>
         </is>
       </c>
       <c r="ZG1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="ZH1" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>space</t>
         </is>
       </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>accumulated</t>
+          <t>objectives</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>bridging</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>characterize</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>specified</t>
+          <t>creativelyand</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>non-school</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>fourd</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>function</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>pertinent</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>participating</t>
+          <t>todeal</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>tendencies</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>occur</t>
+          <t>futures</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>integrating</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>prepared</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>original</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>seminar</t>
+          <t>moels</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>means</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>pursuit</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>life</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>collaborative</t>
+          <t>cgaracteristics</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>facilities</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>goal-planning</t>
+          <t>breakthroughs</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>created</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>applications</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>continuation</t>
+          <t>involves</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>wealth</t>
+          <t>better</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>vaiue</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>tend</t>
+          <t>enrich</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>encompasses</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>served</t>
+          <t>deciding</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>self-evaluation</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>self-assessment</t>
+          <t>co-curricular</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>requires</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
-          <t>problem-centered</t>
+          <t>begins</t>
         </is>
       </c>
       <c r="AAQ1" s="1" t="inlineStr">
         <is>
-          <t>mutual</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="AAR1" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="AAS1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>articulation</t>
         </is>
       </c>
       <c r="AAT1" s="1" t="inlineStr">
         <is>
-          <t>designated</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>immediate</t>
+          <t>statewide</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>report</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
-          <t>tendencies</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>cgaracteristics</t>
+          <t>targeted</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
-          <t>characterize</t>
+          <t>term</t>
         </is>
       </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
-          <t>non-school</t>
+          <t>well-planned</t>
         </is>
       </c>
       <c r="ABC1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>within</t>
         </is>
       </c>
       <c r="ABD1" s="1" t="inlineStr">
         <is>
-          <t>fourd</t>
+          <t>provision</t>
         </is>
       </c>
       <c r="ABE1" s="1" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>real</t>
         </is>
       </c>
       <c r="ABF1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>utilization</t>
         </is>
       </c>
       <c r="ABG1" s="1" t="inlineStr">
         <is>
-          <t>todeal</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="ABH1" s="1" t="inlineStr">
         <is>
-          <t>futures</t>
+          <t>range</t>
         </is>
       </c>
       <c r="ABI1" s="1" t="inlineStr">
         <is>
-          <t>breakthroughs</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="ABJ1" s="1" t="inlineStr">
         <is>
-          <t>systematic</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="ABK1" s="1" t="inlineStr">
         <is>
-          <t>integrating</t>
+          <t>order</t>
         </is>
       </c>
       <c r="ABL1" s="1" t="inlineStr">
         <is>
-          <t>prepared</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="ABM1" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>levet</t>
         </is>
       </c>
       <c r="ABN1" s="1" t="inlineStr">
         <is>
-          <t>moels</t>
+          <t>inservices</t>
         </is>
       </c>
       <c r="ABO1" s="1" t="inlineStr">
         <is>
-          <t>means</t>
+          <t>helpful</t>
         </is>
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>exposure</t>
         </is>
       </c>
       <c r="ABQ1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>examines</t>
         </is>
       </c>
       <c r="ABR1" s="1" t="inlineStr">
         <is>
-          <t>bridging</t>
+          <t>due</t>
         </is>
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
-          <t>creativelyand</t>
+          <t>differing</t>
         </is>
       </c>
       <c r="ABT1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>consultants</t>
         </is>
       </c>
       <c r="ABU1" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="ABV1" s="1" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="ABW1" s="1" t="inlineStr">
         <is>
-          <t>involves</t>
+          <t>categorizod</t>
         </is>
       </c>
       <c r="ABX1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>beneficial</t>
         </is>
       </c>
       <c r="ABY1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>assist</t>
         </is>
       </c>
       <c r="ABZ1" s="1" t="inlineStr">
         <is>
-          <t>enrich</t>
+          <t>prior</t>
         </is>
       </c>
       <c r="ACA1" s="1" t="inlineStr">
         <is>
-          <t>encompasses</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="ACB1" s="1" t="inlineStr">
         <is>
-          <t>deciding</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="ACC1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>separated</t>
         </is>
       </c>
       <c r="ACD1" s="1" t="inlineStr">
         <is>
-          <t>co-curricular</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="ACE1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>network</t>
         </is>
       </c>
       <c r="ACF1" s="1" t="inlineStr">
         <is>
-          <t>begins</t>
+          <t>monitoring</t>
         </is>
       </c>
       <c r="ACG1" s="1" t="inlineStr">
         <is>
-          <t>balance</t>
+          <t>mechanism</t>
         </is>
       </c>
       <c r="ACH1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>instructive</t>
         </is>
       </c>
       <c r="ACI1" s="1" t="inlineStr">
         <is>
-          <t>articulation</t>
+          <t>include</t>
         </is>
       </c>
       <c r="ACJ1" s="1" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>featured</t>
         </is>
       </c>
       <c r="ACK1" s="1" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>evolved</t>
         </is>
       </c>
       <c r="ACL1" s="1" t="inlineStr">
         <is>
-          <t>statewide</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="ACM1" s="1" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>centers</t>
         </is>
       </c>
       <c r="ACN1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="ACO1" s="1" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="ACP1" s="1" t="inlineStr">
         <is>
-          <t>utilization</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="ACQ1" s="1" t="inlineStr">
         <is>
-          <t>targeted</t>
+          <t>varied</t>
         </is>
       </c>
       <c r="ACR1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>utilized</t>
         </is>
       </c>
       <c r="ACS1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>therefore</t>
         </is>
       </c>
       <c r="ACT1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>spanning</t>
         </is>
       </c>
       <c r="ACU1" s="1" t="inlineStr">
         <is>
-          <t>provision</t>
+          <t>planned</t>
         </is>
       </c>
       <c r="ACV1" s="1" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>native</t>
         </is>
       </c>
       <c r="ACW1" s="1" t="inlineStr">
         <is>
-          <t>well-planned</t>
+          <t>434</t>
         </is>
       </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>nominated</t>
         </is>
       </c>
       <c r="ACY1" s="1" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>yielded</t>
         </is>
       </c>
       <c r="ACZ1" s="1" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>west-germany</t>
         </is>
       </c>
       <c r="ADA1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>way</t>
         </is>
       </c>
       <c r="ADB1" s="1" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>446</t>
         </is>
       </c>
       <c r="ADC1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="ADD1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>setf-centered</t>
         </is>
       </c>
       <c r="ADE1" s="1" t="inlineStr">
         <is>
-          <t>levet</t>
+          <t>united-states</t>
         </is>
       </c>
       <c r="ADF1" s="1" t="inlineStr">
         <is>
-          <t>inservices</t>
+          <t>slightly</t>
         </is>
       </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>helpful</t>
+          <t>separately</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>self-centered</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>due</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>differing</t>
+          <t>nominess</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>consultants</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>music/art</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>dependent</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>categorizod</t>
+          <t>84</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>beneficial</t>
+          <t>aaught</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>assist</t>
+          <t>modern</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>common</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>counterparts</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>separated</t>
+          <t>achievement-oriented</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>spanning</t>
+          <t>foreign</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>germans</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>manova</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>mathematics/physics</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>mechanism</t>
+          <t>administer</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>instructive</t>
+          <t>characterized</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>featured</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>evolved</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>centers</t>
+          <t>across</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>average-ability</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>varied</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>utilized</t>
+          <t>consisted</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>native</t>
+          <t>reflecting</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>music/art</t>
+          <t>normatively</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>yielded</t>
+          <t>normative</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>west-germany</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>scales</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>united-states</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>slightly</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>setf-centered</t>
+          <t>homogeneous</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>separately</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>self-centered</t>
+          <t>weaknesses</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>wisc</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>nominess</t>
+          <t>board</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>nominated</t>
+          <t>obtained</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>department</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>approximate</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>counterparts</t>
+          <t>enhancing</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>mathematics/physics</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>master</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>aaught</t>
+          <t>instructionalapproaches</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>achievement-oriented</t>
+          <t>description</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>comprise</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>backgrounds</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>dependent</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>deveiop</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>germans</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>manova</t>
+          <t>coaching</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>characterized</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>four</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>presentation</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>average-ability</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>simulated</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>specialists</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>favorable</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>funded</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>varying</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>modules</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>administer</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>consisted</t>
+          <t>public</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>components</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>talenfs</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>reflecting</t>
+          <t>resulting</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>science</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>subsequent</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>scales</t>
+          <t>fluency</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>normatively</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>evaluated</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>normative</t>
+          <t>demonstrating</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>weaknesses</t>
+          <t>childrens</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>wisc</t>
+          <t>apply</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>homogeneous</t>
+          <t>analytic</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>≥</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>ideational</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>probably</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>originality</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>instructionalapproaches</t>
+          <t>popularity</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>primarily</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>comprise</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>coaching</t>
+          <t>still</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>test-scores</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>approximate</t>
+          <t>multitrait-multimethod</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>predictors</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>department</t>
+          <t>math</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>backgrounds</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>categories</t>
+          <t>predicted</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>enhancing</t>
+          <t>received</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>closely</t>
+          <t>sat-m</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>subsequent</t>
+          <t>sat-v</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>presentation</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>specialists</t>
+          <t>cognitive-abilities</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>deveiop</t>
+          <t>figures</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>varying</t>
+          <t>embedded</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>favorable</t>
+          <t>depending</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>cognnve</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>funded</t>
+          <t>california</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>talenfs</t>
+          <t>alslo</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>modules</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>accurate</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>resulting</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>flexibility</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>fluency</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>childrens</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>apply</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>ideational</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>primarily</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>individuals</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>nongifted</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>originality</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>popularity</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>probably</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>serious</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>test-scores</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>multitrait-multimethod</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>predictors</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
           <t>neither</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>sat-v</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>sat-m</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>inventory</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive-abilities</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>figures</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>embedded</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>depending</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>cognnve</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>california</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>alslo</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>accurate</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
     </row>
@@ -5262,127 +5017,127 @@
         <v>1986</v>
       </c>
       <c r="D2" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="E2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.05</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="N2" t="n">
-        <v>0.97</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="O2" t="n">
-        <v>0.96</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9400000000000002</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="R2" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="V2" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="W2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="X2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.6700000000000002</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.68</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6300000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.62</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.62</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="AS2" t="n">
         <v>0.5800000000000001</v>
@@ -5403,22 +5158,22 @@
         <v>0.58</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BE2" t="n">
         <v>0.55</v>
@@ -5427,25 +5182,25 @@
         <v>0.55</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BN2" t="n">
         <v>0.52</v>
@@ -5454,157 +5209,157 @@
         <v>0.52</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.46</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DO2" t="n">
         <v>0.4</v>
@@ -5616,49 +5371,49 @@
         <v>0.4</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="EG2" t="n">
         <v>0.38</v>
@@ -5673,7 +5428,7 @@
         <v>0.38</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="EL2" t="n">
         <v>0.37</v>
@@ -5682,7 +5437,7 @@
         <v>0.37</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EO2" t="n">
         <v>0.36</v>
@@ -5697,7 +5452,7 @@
         <v>0.36</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="ET2" t="n">
         <v>0.35</v>
@@ -5724,19 +5479,19 @@
         <v>0.35</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FG2" t="n">
         <v>0.34</v>
@@ -5757,325 +5512,325 @@
         <v>0.34</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.34</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.33</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GX2" t="n">
         <v>0.29</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="II2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="JP2" t="n">
         <v>0.23</v>
@@ -6129,7 +5884,7 @@
         <v>0.23</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="KH2" t="n">
         <v>0.22</v>
@@ -6198,64 +5953,64 @@
         <v>0.22</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="LX2" t="n">
         <v>0.21</v>
@@ -6285,76 +6040,76 @@
         <v>0.21</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="NE2" t="n">
         <v>0.2</v>
@@ -6429,34 +6184,34 @@
         <v>0.2</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="OM2" t="n">
         <v>0.19</v>
@@ -6480,79 +6235,79 @@
         <v>0.19</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="PS2" t="n">
         <v>0.18</v>
@@ -6600,31 +6355,31 @@
         <v>0.18</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="QQ2" t="n">
         <v>0.17</v>
@@ -6696,184 +6451,184 @@
         <v>0.17</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="SQ2" t="n">
         <v>0.16</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="TV2" t="n">
         <v>0.15</v>
@@ -6900,109 +6655,109 @@
         <v>0.15</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="US2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="UZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="VM2" t="n">
         <v>0.14</v>
@@ -7179,34 +6934,34 @@
         <v>0.14</v>
       </c>
       <c r="XS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="XZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="YA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="YB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="YC2" t="n">
         <v>0.13</v>
@@ -7419,133 +7174,133 @@
         <v>0.13</v>
       </c>
       <c r="AAU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AAV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AAW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AAX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AAY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AAZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ABZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ACL2" t="n">
         <v>0.12</v>
@@ -7665,142 +7420,142 @@
         <v>0.12</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AFS2" t="n">
         <v>0.1</v>
@@ -7863,285 +7618,138 @@
         <v>0.1</v>
       </c>
       <c r="AGM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AIF2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AIG2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AIH2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AII2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AIJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIX2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKB2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
